--- a/biology/Botanique/Hordeum_marinum/Hordeum_marinum.xlsx
+++ b/biology/Botanique/Hordeum_marinum/Hordeum_marinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hordeum marinum, l'orge maritime ou orge marine, est une espèce de plantes monocotylédones de la famille des Poaceae, famille des Pooideae, originaire d'Afrique du Nord et d'Eurasie .
 C'est une plante herbacée annuelle, à tiges (chaumes) isolées, poussant parfois en touffes. Elle peut atteindre 40 cm de haut.
-Cette espèce s'est répandue hors de son aire d'origine dans d'autres régions tempérées du monde : Amérique du Nord, sud de l'Amérique du Sud, Australasie, Afrique du Sud. C'est une mauvaise herbe des cultures, parfois considérée comme envahissante, par exemple en Californie[2].
+Cette espèce s'est répandue hors de son aire d'origine dans d'autres régions tempérées du monde : Amérique du Nord, sud de l'Amérique du Sud, Australasie, Afrique du Sud. C'est une mauvaise herbe des cultures, parfois considérée comme envahissante, par exemple en Californie.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 octobre 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 octobre 2016) :
 sous-espèce Hordeum marinum subsp. gussoneanum (Parl.) Thell. (1908)
 sous-espèce Hordeum marinum subsp. marinum</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 octobre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Hordeum marinum subsp. gussoneanum (Parl.) Thell.
 sous-espèce Hordeum marinum subsp. marinum
 variété Hordeum marinum var. gussoneanum (Parl.) Hyl.
